--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/105556a81e6c5879/Desktop/Homework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsmit\OneDrive\Desktop\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{14225A84-8FA5-4583-9020-321026B95421}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{1C783AF3-8AE4-4FCA-89D9-4E0A60D54259}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E39416E-DD34-4605-9316-78A5497391DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58A15296-E09C-453B-A1B1-8810C1B3FE87}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="75">
   <si>
     <t>1.2 Accelerating Through Excel</t>
   </si>
@@ -159,9 +159,6 @@
     <t>11.1 Intro to Web Design (HTML / CSS)</t>
   </si>
   <si>
-    <t>Salary Negotiation with Lauren Hasson of DevelopHer</t>
-  </si>
-  <si>
     <t>11.2 Intro to Web Frameworks (Bootstrap)</t>
   </si>
   <si>
@@ -171,15 +168,9 @@
     <t>12.1 Web Scraping 101 (Beautiful Soup)</t>
   </si>
   <si>
-    <t>Cracking The Coding Interview Series: Big O Notation</t>
-  </si>
-  <si>
     <t>12.2 Web Scraping 102 + Intro to MongoDB</t>
   </si>
   <si>
-    <t>The Perfect Technical Interview with Wayfair</t>
-  </si>
-  <si>
     <t>Using Job Track to Power Your Search - Encouraged, Not required</t>
   </si>
   <si>
@@ -201,15 +192,9 @@
     <t>13.3 ETL Project Work</t>
   </si>
   <si>
-    <t>Cracking The Coding Interview Series: Big O Notation [ Web Dev]</t>
-  </si>
-  <si>
     <t>14.1 Intro to JavaScript I</t>
   </si>
   <si>
-    <t>Vincit Technical Interviewing Workshop</t>
-  </si>
-  <si>
     <t>14.2 Intro to JavaScript II</t>
   </si>
   <si>
@@ -231,15 +216,9 @@
     <t>16.1 Fundamentals of D3.js I</t>
   </si>
   <si>
-    <t>Technical Interviewing Workshop</t>
-  </si>
-  <si>
     <t>16.2 Fundamentals of D3.js II</t>
   </si>
   <si>
-    <t>Amazon Technical Interviewing Workshop</t>
-  </si>
-  <si>
     <t>16.3 Advanced Concepts in D3.js</t>
   </si>
   <si>
@@ -252,9 +231,6 @@
     <t>17.2 Geomapping 102 with Leaflet.js</t>
   </si>
   <si>
-    <t>TEK Systems Technical Interviewing Workshop</t>
-  </si>
-  <si>
     <t>17.3 Leaflet + Project Work</t>
   </si>
   <si>
@@ -277,6 +253,9 @@
   </si>
   <si>
     <t>Correct</t>
+  </si>
+  <si>
+    <t>Needs to be corrected I was present not absent</t>
   </si>
 </sst>
 </file>
@@ -325,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +323,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -358,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -400,6 +385,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -429,8 +423,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE6227D9-59CF-4D01-93B4-B0170AC1C55E}" name="Table1" displayName="Table1" ref="A1:C282" totalsRowShown="0">
-  <autoFilter ref="A1:C282" xr:uid="{C471ACE6-417C-4A5D-BA98-51C2E8E67F6D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE6227D9-59CF-4D01-93B4-B0170AC1C55E}" name="Table1" displayName="Table1" ref="A1:C275" totalsRowShown="0">
+  <autoFilter ref="A1:C275" xr:uid="{C471ACE6-417C-4A5D-BA98-51C2E8E67F6D}">
     <filterColumn colId="0">
       <customFilters>
         <customFilter operator="notEqual" val="*not required*"/>
@@ -749,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A95B540-C979-4964-9105-E81D0D728A34}">
-  <dimension ref="A1:C282"/>
+  <dimension ref="A1:C275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -762,18 +756,18 @@
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" hidden="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" hidden="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -791,7 +785,7 @@
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="15.6" hidden="1">
+    <row r="5" spans="1:3" hidden="1">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -809,7 +803,7 @@
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:3" ht="15.6" hidden="1">
+    <row r="8" spans="1:3" hidden="1">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -837,7 +831,7 @@
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:3" ht="46.8" hidden="1">
+    <row r="13" spans="1:3" ht="27.6" hidden="1">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -855,7 +849,7 @@
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:3" ht="15.6" hidden="1">
+    <row r="16" spans="1:3" hidden="1">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -873,7 +867,7 @@
       </c>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" ht="15.6" hidden="1">
+    <row r="19" spans="1:2" hidden="1">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -891,7 +885,7 @@
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" ht="46.8" hidden="1">
+    <row r="22" spans="1:2" ht="41.4" hidden="1">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
@@ -909,7 +903,7 @@
       </c>
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="1:2" ht="15.6" hidden="1">
+    <row r="25" spans="1:2" hidden="1">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -927,7 +921,7 @@
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" ht="62.4" hidden="1">
+    <row r="28" spans="1:2" ht="41.4" hidden="1">
       <c r="A28" s="6" t="s">
         <v>10</v>
       </c>
@@ -945,7 +939,7 @@
       </c>
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:2" ht="15.6" hidden="1">
+    <row r="31" spans="1:2" hidden="1">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -963,7 +957,7 @@
       </c>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" ht="15.6" hidden="1">
+    <row r="34" spans="1:2" hidden="1">
       <c r="A34" s="6" t="s">
         <v>12</v>
       </c>
@@ -981,7 +975,7 @@
       </c>
       <c r="B36" s="8"/>
     </row>
-    <row r="37" spans="1:2" ht="46.8" hidden="1">
+    <row r="37" spans="1:2" ht="41.4" hidden="1">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -999,7 +993,7 @@
       </c>
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:2" ht="15.6" hidden="1">
+    <row r="40" spans="1:2" hidden="1">
       <c r="A40" s="6" t="s">
         <v>13</v>
       </c>
@@ -1017,7 +1011,7 @@
       </c>
       <c r="B42" s="8"/>
     </row>
-    <row r="43" spans="1:2" ht="46.8" hidden="1">
+    <row r="43" spans="1:2" ht="27.6" hidden="1">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1029,7 @@
       </c>
       <c r="B45" s="10"/>
     </row>
-    <row r="46" spans="1:2" ht="15.6" hidden="1">
+    <row r="46" spans="1:2" hidden="1">
       <c r="A46" s="6" t="s">
         <v>14</v>
       </c>
@@ -1053,7 +1047,7 @@
       </c>
       <c r="B48" s="8"/>
     </row>
-    <row r="49" spans="1:3" ht="31.2" hidden="1">
+    <row r="49" spans="1:3" hidden="1">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -1071,7 +1065,7 @@
       </c>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:3" ht="15.6" hidden="1">
+    <row r="52" spans="1:3" hidden="1">
       <c r="A52" s="6" t="s">
         <v>16</v>
       </c>
@@ -1089,7 +1083,7 @@
       </c>
       <c r="B54" s="8"/>
     </row>
-    <row r="55" spans="1:3" ht="31.2" hidden="1">
+    <row r="55" spans="1:3" ht="27.6" hidden="1">
       <c r="A55" s="2" t="s">
         <v>17</v>
       </c>
@@ -1107,7 +1101,7 @@
       </c>
       <c r="B57" s="10"/>
     </row>
-    <row r="58" spans="1:3" ht="46.8" hidden="1">
+    <row r="58" spans="1:3" ht="27.6" hidden="1">
       <c r="A58" s="6" t="s">
         <v>5</v>
       </c>
@@ -1125,12 +1119,12 @@
       </c>
       <c r="B60" s="9"/>
     </row>
-    <row r="61" spans="1:3" ht="31.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:3" hidden="1">
@@ -1143,12 +1137,12 @@
       </c>
       <c r="B63" s="10"/>
     </row>
-    <row r="64" spans="1:3" ht="31.2">
+    <row r="64" spans="1:3" ht="27.6">
       <c r="A64" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>80</v>
+      <c r="B64" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C64" s="14">
         <v>43147</v>
@@ -1164,7 +1158,7 @@
       </c>
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="1:2" ht="62.4" hidden="1">
+    <row r="67" spans="1:2" ht="55.2" hidden="1">
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
@@ -1182,7 +1176,7 @@
       </c>
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="1:2" ht="31.2" hidden="1">
+    <row r="70" spans="1:2" hidden="1">
       <c r="A70" s="6" t="s">
         <v>22</v>
       </c>
@@ -1200,7 +1194,7 @@
       </c>
       <c r="B72" s="8"/>
     </row>
-    <row r="73" spans="1:2" ht="62.4" hidden="1">
+    <row r="73" spans="1:2" ht="41.4" hidden="1">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
@@ -1218,7 +1212,7 @@
       </c>
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="1:2" ht="31.2" hidden="1">
+    <row r="76" spans="1:2" ht="27.6" hidden="1">
       <c r="A76" s="6" t="s">
         <v>17</v>
       </c>
@@ -1236,7 +1230,7 @@
       </c>
       <c r="B78" s="9"/>
     </row>
-    <row r="79" spans="1:2" ht="62.4" hidden="1">
+    <row r="79" spans="1:2" ht="41.4" hidden="1">
       <c r="A79" s="2" t="s">
         <v>23</v>
       </c>
@@ -1254,7 +1248,7 @@
       </c>
       <c r="B81" s="10"/>
     </row>
-    <row r="82" spans="1:2" ht="15.6" hidden="1">
+    <row r="82" spans="1:2" hidden="1">
       <c r="A82" s="6" t="s">
         <v>24</v>
       </c>
@@ -1272,7 +1266,7 @@
       </c>
       <c r="B84" s="8"/>
     </row>
-    <row r="85" spans="1:2" ht="46.8" hidden="1">
+    <row r="85" spans="1:2" ht="41.4" hidden="1">
       <c r="A85" s="2" t="s">
         <v>8</v>
       </c>
@@ -1290,7 +1284,7 @@
       </c>
       <c r="B87" s="10"/>
     </row>
-    <row r="88" spans="1:2" ht="31.2" hidden="1">
+    <row r="88" spans="1:2" ht="27.6" hidden="1">
       <c r="A88" s="6" t="s">
         <v>25</v>
       </c>
@@ -1308,7 +1302,7 @@
       </c>
       <c r="B90" s="8"/>
     </row>
-    <row r="91" spans="1:2" ht="15.6" hidden="1">
+    <row r="91" spans="1:2" hidden="1">
       <c r="A91" s="2" t="s">
         <v>26</v>
       </c>
@@ -1326,7 +1320,7 @@
       </c>
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="1:2" ht="15.6" hidden="1">
+    <row r="94" spans="1:2" hidden="1">
       <c r="A94" s="6" t="s">
         <v>27</v>
       </c>
@@ -1344,7 +1338,7 @@
       </c>
       <c r="B96" s="8"/>
     </row>
-    <row r="97" spans="1:2" ht="15.6" hidden="1">
+    <row r="97" spans="1:2" hidden="1">
       <c r="A97" s="2" t="s">
         <v>28</v>
       </c>
@@ -1362,7 +1356,7 @@
       </c>
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="1:2" ht="62.4" hidden="1">
+    <row r="100" spans="1:2" ht="55.2" hidden="1">
       <c r="A100" s="6" t="s">
         <v>21</v>
       </c>
@@ -1380,7 +1374,7 @@
       </c>
       <c r="B102" s="9"/>
     </row>
-    <row r="103" spans="1:2" ht="15.6" hidden="1">
+    <row r="103" spans="1:2" hidden="1">
       <c r="A103" s="2" t="s">
         <v>29</v>
       </c>
@@ -1398,7 +1392,7 @@
       </c>
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="1:2" ht="62.4" hidden="1">
+    <row r="106" spans="1:2" ht="41.4" hidden="1">
       <c r="A106" s="6" t="s">
         <v>23</v>
       </c>
@@ -1416,7 +1410,7 @@
       </c>
       <c r="B108" s="9"/>
     </row>
-    <row r="109" spans="1:2" ht="15.6" hidden="1">
+    <row r="109" spans="1:2" hidden="1">
       <c r="A109" s="2" t="s">
         <v>30</v>
       </c>
@@ -1434,7 +1428,7 @@
       </c>
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="1:2" ht="15.6" hidden="1">
+    <row r="112" spans="1:2" hidden="1">
       <c r="A112" s="6" t="s">
         <v>31</v>
       </c>
@@ -1452,7 +1446,7 @@
       </c>
       <c r="B114" s="8"/>
     </row>
-    <row r="115" spans="1:2" ht="31.2" hidden="1">
+    <row r="115" spans="1:2" ht="27.6" hidden="1">
       <c r="A115" s="2" t="s">
         <v>17</v>
       </c>
@@ -1470,7 +1464,7 @@
       </c>
       <c r="B117" s="10"/>
     </row>
-    <row r="118" spans="1:2" ht="46.8" hidden="1">
+    <row r="118" spans="1:2" ht="41.4" hidden="1">
       <c r="A118" s="6" t="s">
         <v>32</v>
       </c>
@@ -1488,7 +1482,7 @@
       </c>
       <c r="B120" s="9"/>
     </row>
-    <row r="121" spans="1:2" ht="15.6" hidden="1">
+    <row r="121" spans="1:2" hidden="1">
       <c r="A121" s="2" t="s">
         <v>33</v>
       </c>
@@ -1506,7 +1500,7 @@
       </c>
       <c r="B123" s="4"/>
     </row>
-    <row r="124" spans="1:2" ht="31.2" hidden="1">
+    <row r="124" spans="1:2" ht="27.6" hidden="1">
       <c r="A124" s="6" t="s">
         <v>34</v>
       </c>
@@ -1524,7 +1518,7 @@
       </c>
       <c r="B126" s="9"/>
     </row>
-    <row r="127" spans="1:2" ht="15.6" hidden="1">
+    <row r="127" spans="1:2" hidden="1">
       <c r="A127" s="2" t="s">
         <v>35</v>
       </c>
@@ -1542,7 +1536,7 @@
       </c>
       <c r="B129" s="4"/>
     </row>
-    <row r="130" spans="1:2" ht="46.8" hidden="1">
+    <row r="130" spans="1:2" ht="27.6" hidden="1">
       <c r="A130" s="6" t="s">
         <v>5</v>
       </c>
@@ -1560,7 +1554,7 @@
       </c>
       <c r="B132" s="9"/>
     </row>
-    <row r="133" spans="1:2" ht="15.6" hidden="1">
+    <row r="133" spans="1:2" hidden="1">
       <c r="A133" s="2" t="s">
         <v>36</v>
       </c>
@@ -1578,7 +1572,7 @@
       </c>
       <c r="B135" s="4"/>
     </row>
-    <row r="136" spans="1:2" ht="15.6" hidden="1">
+    <row r="136" spans="1:2" hidden="1">
       <c r="A136" s="6" t="s">
         <v>37</v>
       </c>
@@ -1596,7 +1590,7 @@
       </c>
       <c r="B138" s="8"/>
     </row>
-    <row r="139" spans="1:2" ht="62.4" hidden="1">
+    <row r="139" spans="1:2" ht="41.4" hidden="1">
       <c r="A139" s="2" t="s">
         <v>10</v>
       </c>
@@ -1614,7 +1608,7 @@
       </c>
       <c r="B141" s="10"/>
     </row>
-    <row r="142" spans="1:2" ht="15.6" hidden="1">
+    <row r="142" spans="1:2" hidden="1">
       <c r="A142" s="6" t="s">
         <v>38</v>
       </c>
@@ -1632,12 +1626,12 @@
       </c>
       <c r="B144" s="8"/>
     </row>
-    <row r="145" spans="1:3" ht="15.6">
+    <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C145" s="14"/>
     </row>
@@ -1651,7 +1645,7 @@
       </c>
       <c r="B147" s="10"/>
     </row>
-    <row r="148" spans="1:3" ht="46.8" hidden="1">
+    <row r="148" spans="1:3" ht="27.6" hidden="1">
       <c r="A148" s="6" t="s">
         <v>40</v>
       </c>
@@ -1669,7 +1663,7 @@
       </c>
       <c r="B150" s="9"/>
     </row>
-    <row r="151" spans="1:3" ht="31.2">
+    <row r="151" spans="1:3">
       <c r="A151" s="2" t="s">
         <v>41</v>
       </c>
@@ -1687,783 +1681,727 @@
       </c>
       <c r="B153" s="12"/>
     </row>
-    <row r="154" spans="1:3" ht="31.2">
-      <c r="A154" s="6" t="s">
+    <row r="154" spans="1:3" hidden="1">
+      <c r="A154" s="5"/>
+      <c r="B154" s="9"/>
+    </row>
+    <row r="155" spans="1:3" hidden="1">
+      <c r="A155" s="7">
+        <v>43551</v>
+      </c>
+      <c r="B155" s="9"/>
+    </row>
+    <row r="156" spans="1:3" hidden="1">
+      <c r="A156" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B154" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" hidden="1">
-      <c r="A155" s="5"/>
-      <c r="B155" s="9"/>
-    </row>
-    <row r="156" spans="1:3" hidden="1">
-      <c r="A156" s="7">
-        <v>43551</v>
-      </c>
-      <c r="B156" s="9"/>
-    </row>
-    <row r="157" spans="1:3" ht="31.2" hidden="1">
-      <c r="A157" s="2" t="s">
+      <c r="B156" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" hidden="1">
+      <c r="A157" s="1"/>
+      <c r="B157" s="4"/>
+    </row>
+    <row r="158" spans="1:3" hidden="1">
+      <c r="A158" s="3">
+        <v>43552</v>
+      </c>
+      <c r="B158" s="4"/>
+    </row>
+    <row r="159" spans="1:3" ht="27.6">
+      <c r="A159" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1">
-      <c r="A158" s="1"/>
-      <c r="B158" s="4"/>
-    </row>
-    <row r="159" spans="1:3" hidden="1">
-      <c r="A159" s="3">
-        <v>43552</v>
-      </c>
-      <c r="B159" s="4"/>
-    </row>
-    <row r="160" spans="1:3" ht="15.6">
-      <c r="A160" s="6" t="s">
+      <c r="B159" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" hidden="1">
+      <c r="A160" s="5"/>
+      <c r="B160" s="9"/>
+    </row>
+    <row r="161" spans="1:2" hidden="1">
+      <c r="A161" s="7">
+        <v>43554</v>
+      </c>
+      <c r="B161" s="9"/>
+    </row>
+    <row r="162" spans="1:2" ht="41.4" hidden="1">
+      <c r="A162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" hidden="1">
+      <c r="A163" s="1"/>
+      <c r="B163" s="10"/>
+    </row>
+    <row r="164" spans="1:2" hidden="1">
+      <c r="A164" s="3">
+        <v>43556</v>
+      </c>
+      <c r="B164" s="10"/>
+    </row>
+    <row r="165" spans="1:2" hidden="1">
+      <c r="A165" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B160" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" hidden="1">
-      <c r="A161" s="5"/>
-      <c r="B161" s="9"/>
-    </row>
-    <row r="162" spans="1:2" hidden="1">
-      <c r="A162" s="7">
-        <v>43554</v>
-      </c>
-      <c r="B162" s="9"/>
-    </row>
-    <row r="163" spans="1:2" ht="46.8" hidden="1">
-      <c r="A163" s="2" t="s">
+      <c r="B165" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" hidden="1">
+      <c r="A166" s="5"/>
+      <c r="B166" s="8"/>
+    </row>
+    <row r="167" spans="1:2" hidden="1">
+      <c r="A167" s="7">
+        <v>43557</v>
+      </c>
+      <c r="B167" s="8"/>
+    </row>
+    <row r="168" spans="1:2" ht="27.6" hidden="1">
+      <c r="A168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" hidden="1">
+      <c r="A169" s="1"/>
+      <c r="B169" s="10"/>
+    </row>
+    <row r="170" spans="1:2" hidden="1">
+      <c r="A170" s="3">
+        <v>43558</v>
+      </c>
+      <c r="B170" s="10"/>
+    </row>
+    <row r="171" spans="1:2" hidden="1">
+      <c r="A171" s="5"/>
+      <c r="B171" s="9"/>
+    </row>
+    <row r="172" spans="1:2" hidden="1">
+      <c r="A172" s="7">
+        <v>43559</v>
+      </c>
+      <c r="B172" s="9"/>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" hidden="1">
+      <c r="A174" s="1"/>
+      <c r="B174" s="12"/>
+    </row>
+    <row r="175" spans="1:2" hidden="1">
+      <c r="A175" s="3">
+        <v>43559</v>
+      </c>
+      <c r="B175" s="12"/>
+    </row>
+    <row r="176" spans="1:2" hidden="1">
+      <c r="A176" s="5"/>
+      <c r="B176" s="9"/>
+    </row>
+    <row r="177" spans="1:2" hidden="1">
+      <c r="A177" s="7">
+        <v>43560</v>
+      </c>
+      <c r="B177" s="9"/>
+    </row>
+    <row r="178" spans="1:2" ht="27.6" hidden="1">
+      <c r="A178" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" hidden="1">
+      <c r="A179" s="1"/>
+      <c r="B179" s="10"/>
+    </row>
+    <row r="180" spans="1:2" hidden="1">
+      <c r="A180" s="3">
+        <v>43560</v>
+      </c>
+      <c r="B180" s="10"/>
+    </row>
+    <row r="181" spans="1:2" hidden="1">
+      <c r="A181" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" hidden="1">
+      <c r="A182" s="5"/>
+      <c r="B182" s="8"/>
+    </row>
+    <row r="183" spans="1:2" hidden="1">
+      <c r="A183" s="7">
+        <v>43561</v>
+      </c>
+      <c r="B183" s="8"/>
+    </row>
+    <row r="184" spans="1:2" ht="27.6" hidden="1">
+      <c r="A184" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" hidden="1">
+      <c r="A185" s="1"/>
+      <c r="B185" s="10"/>
+    </row>
+    <row r="186" spans="1:2" hidden="1">
+      <c r="A186" s="3">
+        <v>43563</v>
+      </c>
+      <c r="B186" s="10"/>
+    </row>
+    <row r="187" spans="1:2" hidden="1">
+      <c r="A187" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" hidden="1">
+      <c r="A188" s="5"/>
+      <c r="B188" s="8"/>
+    </row>
+    <row r="189" spans="1:2" hidden="1">
+      <c r="A189" s="7">
+        <v>43564</v>
+      </c>
+      <c r="B189" s="8"/>
+    </row>
+    <row r="190" spans="1:2" ht="41.4" hidden="1">
+      <c r="A190" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" hidden="1">
+      <c r="A191" s="1"/>
+      <c r="B191" s="10"/>
+    </row>
+    <row r="192" spans="1:2" hidden="1">
+      <c r="A192" s="3">
+        <v>43565</v>
+      </c>
+      <c r="B192" s="10"/>
+    </row>
+    <row r="193" spans="1:2" hidden="1">
+      <c r="A193" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" hidden="1">
+      <c r="A194" s="5"/>
+      <c r="B194" s="8"/>
+    </row>
+    <row r="195" spans="1:2" hidden="1">
+      <c r="A195" s="7">
+        <v>43566</v>
+      </c>
+      <c r="B195" s="8"/>
+    </row>
+    <row r="196" spans="1:2" ht="27.6" hidden="1">
+      <c r="A196" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" hidden="1">
+      <c r="A197" s="1"/>
+      <c r="B197" s="10"/>
+    </row>
+    <row r="198" spans="1:2" hidden="1">
+      <c r="A198" s="3">
+        <v>43566</v>
+      </c>
+      <c r="B198" s="10"/>
+    </row>
+    <row r="199" spans="1:2" hidden="1">
+      <c r="A199" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" hidden="1">
+      <c r="A200" s="5"/>
+      <c r="B200" s="8"/>
+    </row>
+    <row r="201" spans="1:2" hidden="1">
+      <c r="A201" s="7">
+        <v>43568</v>
+      </c>
+      <c r="B201" s="8"/>
+    </row>
+    <row r="202" spans="1:2" hidden="1">
+      <c r="A202" s="1"/>
+      <c r="B202" s="10"/>
+    </row>
+    <row r="203" spans="1:2" hidden="1">
+      <c r="A203" s="3">
+        <v>43570</v>
+      </c>
+      <c r="B203" s="10"/>
+    </row>
+    <row r="204" spans="1:2" ht="55.2" hidden="1">
+      <c r="A204" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" hidden="1">
+      <c r="A205" s="5"/>
+      <c r="B205" s="9"/>
+    </row>
+    <row r="206" spans="1:2" hidden="1">
+      <c r="A206" s="7">
+        <v>43571</v>
+      </c>
+      <c r="B206" s="9"/>
+    </row>
+    <row r="207" spans="1:2" hidden="1">
+      <c r="A207" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" hidden="1">
+      <c r="A208" s="1"/>
+      <c r="B208" s="4"/>
+    </row>
+    <row r="209" spans="1:2" hidden="1">
+      <c r="A209" s="3">
+        <v>43571</v>
+      </c>
+      <c r="B209" s="4"/>
+    </row>
+    <row r="210" spans="1:2" ht="27.6" hidden="1">
+      <c r="A210" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" hidden="1">
+      <c r="A211" s="5"/>
+      <c r="B211" s="9"/>
+    </row>
+    <row r="212" spans="1:2" hidden="1">
+      <c r="A212" s="7">
+        <v>43572</v>
+      </c>
+      <c r="B212" s="9"/>
+    </row>
+    <row r="213" spans="1:2" hidden="1">
+      <c r="A213" s="1"/>
+      <c r="B213" s="10"/>
+    </row>
+    <row r="214" spans="1:2" hidden="1">
+      <c r="A214" s="3">
+        <v>43573</v>
+      </c>
+      <c r="B214" s="10"/>
+    </row>
+    <row r="215" spans="1:2" hidden="1">
+      <c r="A215" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" hidden="1">
+      <c r="A216" s="5"/>
+      <c r="B216" s="8"/>
+    </row>
+    <row r="217" spans="1:2" hidden="1">
+      <c r="A217" s="7">
+        <v>43573</v>
+      </c>
+      <c r="B217" s="8"/>
+    </row>
+    <row r="218" spans="1:2" ht="27.6" hidden="1">
+      <c r="A218" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" hidden="1">
+      <c r="A219" s="1"/>
+      <c r="B219" s="10"/>
+    </row>
+    <row r="220" spans="1:2" hidden="1">
+      <c r="A220" s="3">
+        <v>43574</v>
+      </c>
+      <c r="B220" s="10"/>
+    </row>
+    <row r="221" spans="1:2" hidden="1">
+      <c r="A221" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" hidden="1">
+      <c r="A222" s="5"/>
+      <c r="B222" s="8"/>
+    </row>
+    <row r="223" spans="1:2" hidden="1">
+      <c r="A223" s="7">
+        <v>43575</v>
+      </c>
+      <c r="B223" s="8"/>
+    </row>
+    <row r="224" spans="1:2" hidden="1">
+      <c r="A224" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" hidden="1">
+      <c r="A225" s="1"/>
+      <c r="B225" s="4"/>
+    </row>
+    <row r="226" spans="1:2" hidden="1">
+      <c r="A226" s="3">
+        <v>43578</v>
+      </c>
+      <c r="B226" s="4"/>
+    </row>
+    <row r="227" spans="1:2" ht="41.4" hidden="1">
+      <c r="A227" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B163" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" hidden="1">
-      <c r="A164" s="1"/>
-      <c r="B164" s="10"/>
-    </row>
-    <row r="165" spans="1:2" hidden="1">
-      <c r="A165" s="3">
-        <v>43556</v>
-      </c>
-      <c r="B165" s="10"/>
-    </row>
-    <row r="166" spans="1:2" ht="31.2" hidden="1">
-      <c r="A166" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" hidden="1">
-      <c r="A167" s="5"/>
-      <c r="B167" s="8"/>
-    </row>
-    <row r="168" spans="1:2" hidden="1">
-      <c r="A168" s="7">
-        <v>43557</v>
-      </c>
-      <c r="B168" s="8"/>
-    </row>
-    <row r="169" spans="1:2" ht="46.8" hidden="1">
-      <c r="A169" s="2" t="s">
+      <c r="B227" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" hidden="1">
+      <c r="A228" s="5"/>
+      <c r="B228" s="9"/>
+    </row>
+    <row r="229" spans="1:2" hidden="1">
+      <c r="A229" s="7">
+        <v>43578</v>
+      </c>
+      <c r="B229" s="9"/>
+    </row>
+    <row r="230" spans="1:2" ht="41.4" hidden="1">
+      <c r="A230" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" hidden="1">
+      <c r="A231" s="1"/>
+      <c r="B231" s="10"/>
+    </row>
+    <row r="232" spans="1:2" hidden="1">
+      <c r="A232" s="3">
+        <v>43579</v>
+      </c>
+      <c r="B232" s="10"/>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" hidden="1">
+      <c r="A234" s="5"/>
+      <c r="B234" s="11"/>
+    </row>
+    <row r="235" spans="1:2" hidden="1">
+      <c r="A235" s="7">
+        <v>43580</v>
+      </c>
+      <c r="B235" s="11"/>
+    </row>
+    <row r="236" spans="1:2" ht="41.4" hidden="1">
+      <c r="A236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" hidden="1">
+      <c r="A237" s="1"/>
+      <c r="B237" s="10"/>
+    </row>
+    <row r="238" spans="1:2" hidden="1">
+      <c r="A238" s="3">
+        <v>43580</v>
+      </c>
+      <c r="B238" s="10"/>
+    </row>
+    <row r="239" spans="1:2" hidden="1">
+      <c r="A239" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" hidden="1">
+      <c r="A240" s="5"/>
+      <c r="B240" s="8"/>
+    </row>
+    <row r="241" spans="1:2" hidden="1">
+      <c r="A241" s="7">
+        <v>43582</v>
+      </c>
+      <c r="B241" s="8"/>
+    </row>
+    <row r="242" spans="1:2" hidden="1">
+      <c r="A242" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" hidden="1">
+      <c r="A243" s="1"/>
+      <c r="B243" s="4"/>
+    </row>
+    <row r="244" spans="1:2" hidden="1">
+      <c r="A244" s="3">
+        <v>43585</v>
+      </c>
+      <c r="B244" s="4"/>
+    </row>
+    <row r="245" spans="1:2" ht="27.6" hidden="1">
+      <c r="A245" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B169" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" hidden="1">
-      <c r="A170" s="1"/>
-      <c r="B170" s="10"/>
-    </row>
-    <row r="171" spans="1:2" hidden="1">
-      <c r="A171" s="3">
-        <v>43558</v>
-      </c>
-      <c r="B171" s="10"/>
-    </row>
-    <row r="172" spans="1:2" ht="31.2">
-      <c r="A172" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" hidden="1">
-      <c r="A173" s="5"/>
-      <c r="B173" s="9"/>
-    </row>
-    <row r="174" spans="1:2" hidden="1">
-      <c r="A174" s="7">
-        <v>43559</v>
-      </c>
-      <c r="B174" s="9"/>
-    </row>
-    <row r="175" spans="1:2" ht="31.2">
-      <c r="A175" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B175" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" hidden="1">
-      <c r="A176" s="1"/>
-      <c r="B176" s="12"/>
-    </row>
-    <row r="177" spans="1:2" hidden="1">
-      <c r="A177" s="3">
-        <v>43559</v>
-      </c>
-      <c r="B177" s="12"/>
-    </row>
-    <row r="178" spans="1:2" ht="31.2">
-      <c r="A178" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" hidden="1">
-      <c r="A179" s="5"/>
-      <c r="B179" s="9"/>
-    </row>
-    <row r="180" spans="1:2" hidden="1">
-      <c r="A180" s="7">
-        <v>43560</v>
-      </c>
-      <c r="B180" s="9"/>
-    </row>
-    <row r="181" spans="1:2" ht="31.2" hidden="1">
-      <c r="A181" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B181" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" hidden="1">
-      <c r="A182" s="1"/>
-      <c r="B182" s="10"/>
-    </row>
-    <row r="183" spans="1:2" hidden="1">
-      <c r="A183" s="3">
-        <v>43560</v>
-      </c>
-      <c r="B183" s="10"/>
-    </row>
-    <row r="184" spans="1:2" ht="15.6" hidden="1">
-      <c r="A184" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" hidden="1">
-      <c r="A185" s="5"/>
-      <c r="B185" s="8"/>
-    </row>
-    <row r="186" spans="1:2" hidden="1">
-      <c r="A186" s="7">
-        <v>43561</v>
-      </c>
-      <c r="B186" s="8"/>
-    </row>
-    <row r="187" spans="1:2" ht="31.2" hidden="1">
-      <c r="A187" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B187" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" hidden="1">
-      <c r="A188" s="1"/>
-      <c r="B188" s="10"/>
-    </row>
-    <row r="189" spans="1:2" hidden="1">
-      <c r="A189" s="3">
-        <v>43563</v>
-      </c>
-      <c r="B189" s="10"/>
-    </row>
-    <row r="190" spans="1:2" ht="15.6" hidden="1">
-      <c r="A190" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" hidden="1">
-      <c r="A191" s="5"/>
-      <c r="B191" s="8"/>
-    </row>
-    <row r="192" spans="1:2" hidden="1">
-      <c r="A192" s="7">
-        <v>43564</v>
-      </c>
-      <c r="B192" s="8"/>
-    </row>
-    <row r="193" spans="1:2" ht="62.4" hidden="1">
-      <c r="A193" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B193" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" hidden="1">
-      <c r="A194" s="1"/>
-      <c r="B194" s="10"/>
-    </row>
-    <row r="195" spans="1:2" hidden="1">
-      <c r="A195" s="3">
-        <v>43565</v>
-      </c>
-      <c r="B195" s="10"/>
-    </row>
-    <row r="196" spans="1:2" ht="15.6" hidden="1">
-      <c r="A196" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" hidden="1">
-      <c r="A197" s="5"/>
-      <c r="B197" s="8"/>
-    </row>
-    <row r="198" spans="1:2" hidden="1">
-      <c r="A198" s="7">
-        <v>43566</v>
-      </c>
-      <c r="B198" s="8"/>
-    </row>
-    <row r="199" spans="1:2" ht="46.8" hidden="1">
-      <c r="A199" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B199" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" hidden="1">
-      <c r="A200" s="1"/>
-      <c r="B200" s="10"/>
-    </row>
-    <row r="201" spans="1:2" hidden="1">
-      <c r="A201" s="3">
-        <v>43566</v>
-      </c>
-      <c r="B201" s="10"/>
-    </row>
-    <row r="202" spans="1:2" ht="15.6" hidden="1">
-      <c r="A202" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" hidden="1">
-      <c r="A203" s="5"/>
-      <c r="B203" s="8"/>
-    </row>
-    <row r="204" spans="1:2" hidden="1">
-      <c r="A204" s="7">
-        <v>43568</v>
-      </c>
-      <c r="B204" s="8"/>
-    </row>
-    <row r="205" spans="1:2" ht="31.2">
-      <c r="A205" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B205" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" hidden="1">
-      <c r="A206" s="1"/>
-      <c r="B206" s="10"/>
-    </row>
-    <row r="207" spans="1:2" hidden="1">
-      <c r="A207" s="3">
-        <v>43570</v>
-      </c>
-      <c r="B207" s="10"/>
-    </row>
-    <row r="208" spans="1:2" ht="62.4" hidden="1">
-      <c r="A208" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" hidden="1">
-      <c r="A209" s="5"/>
-      <c r="B209" s="9"/>
-    </row>
-    <row r="210" spans="1:2" hidden="1">
-      <c r="A210" s="7">
-        <v>43571</v>
-      </c>
-      <c r="B210" s="9"/>
-    </row>
-    <row r="211" spans="1:2" ht="15.6" hidden="1">
-      <c r="A211" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" hidden="1">
-      <c r="A212" s="1"/>
-      <c r="B212" s="4"/>
-    </row>
-    <row r="213" spans="1:2" hidden="1">
-      <c r="A213" s="3">
-        <v>43571</v>
-      </c>
-      <c r="B213" s="4"/>
-    </row>
-    <row r="214" spans="1:2" ht="31.2" hidden="1">
-      <c r="A214" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" hidden="1">
-      <c r="A215" s="5"/>
-      <c r="B215" s="9"/>
-    </row>
-    <row r="216" spans="1:2" hidden="1">
-      <c r="A216" s="7">
-        <v>43572</v>
-      </c>
-      <c r="B216" s="9"/>
-    </row>
-    <row r="217" spans="1:2" ht="31.2">
-      <c r="A217" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B217" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" hidden="1">
-      <c r="A218" s="1"/>
-      <c r="B218" s="10"/>
-    </row>
-    <row r="219" spans="1:2" hidden="1">
-      <c r="A219" s="3">
-        <v>43573</v>
-      </c>
-      <c r="B219" s="10"/>
-    </row>
-    <row r="220" spans="1:2" ht="15.6" hidden="1">
-      <c r="A220" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" hidden="1">
-      <c r="A221" s="5"/>
-      <c r="B221" s="8"/>
-    </row>
-    <row r="222" spans="1:2" hidden="1">
-      <c r="A222" s="7">
-        <v>43573</v>
-      </c>
-      <c r="B222" s="8"/>
-    </row>
-    <row r="223" spans="1:2" ht="31.2" hidden="1">
-      <c r="A223" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B223" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" hidden="1">
-      <c r="A224" s="1"/>
-      <c r="B224" s="10"/>
-    </row>
-    <row r="225" spans="1:2" hidden="1">
-      <c r="A225" s="3">
-        <v>43574</v>
-      </c>
-      <c r="B225" s="10"/>
-    </row>
-    <row r="226" spans="1:2" ht="15.6" hidden="1">
-      <c r="A226" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B226" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" hidden="1">
-      <c r="A227" s="5"/>
-      <c r="B227" s="8"/>
-    </row>
-    <row r="228" spans="1:2" hidden="1">
-      <c r="A228" s="7">
-        <v>43575</v>
-      </c>
-      <c r="B228" s="8"/>
-    </row>
-    <row r="229" spans="1:2" ht="15.6" hidden="1">
-      <c r="A229" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" hidden="1">
-      <c r="A230" s="1"/>
-      <c r="B230" s="4"/>
-    </row>
-    <row r="231" spans="1:2" hidden="1">
-      <c r="A231" s="3">
-        <v>43578</v>
-      </c>
-      <c r="B231" s="4"/>
-    </row>
-    <row r="232" spans="1:2" ht="46.8" hidden="1">
-      <c r="A232" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" hidden="1">
-      <c r="A233" s="5"/>
-      <c r="B233" s="9"/>
-    </row>
-    <row r="234" spans="1:2" hidden="1">
-      <c r="A234" s="7">
-        <v>43578</v>
-      </c>
-      <c r="B234" s="9"/>
-    </row>
-    <row r="235" spans="1:2" ht="62.4" hidden="1">
-      <c r="A235" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B235" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" hidden="1">
-      <c r="A236" s="1"/>
-      <c r="B236" s="10"/>
-    </row>
-    <row r="237" spans="1:2" hidden="1">
-      <c r="A237" s="3">
-        <v>43579</v>
-      </c>
-      <c r="B237" s="10"/>
-    </row>
-    <row r="238" spans="1:2" ht="15.6">
-      <c r="A238" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B238" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" hidden="1">
-      <c r="A239" s="5"/>
-      <c r="B239" s="11"/>
-    </row>
-    <row r="240" spans="1:2" hidden="1">
-      <c r="A240" s="7">
-        <v>43580</v>
-      </c>
-      <c r="B240" s="11"/>
-    </row>
-    <row r="241" spans="1:2" ht="62.4" hidden="1">
-      <c r="A241" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B241" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" hidden="1">
-      <c r="A242" s="1"/>
-      <c r="B242" s="10"/>
-    </row>
-    <row r="243" spans="1:2" hidden="1">
-      <c r="A243" s="3">
-        <v>43580</v>
-      </c>
-      <c r="B243" s="10"/>
-    </row>
-    <row r="244" spans="1:2" ht="15.6" hidden="1">
-      <c r="A244" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B244" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" hidden="1">
-      <c r="A245" s="5"/>
-      <c r="B245" s="8"/>
+      <c r="B245" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="246" spans="1:2" hidden="1">
-      <c r="A246" s="7">
-        <v>43582</v>
-      </c>
-      <c r="B246" s="8"/>
-    </row>
-    <row r="247" spans="1:2" ht="15.6" hidden="1">
-      <c r="A247" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="A246" s="5"/>
+      <c r="B246" s="9"/>
+    </row>
+    <row r="247" spans="1:2" hidden="1">
+      <c r="A247" s="7">
+        <v>43585</v>
+      </c>
+      <c r="B247" s="9"/>
     </row>
     <row r="248" spans="1:2" hidden="1">
       <c r="A248" s="1"/>
-      <c r="B248" s="4"/>
+      <c r="B248" s="10"/>
     </row>
     <row r="249" spans="1:2" hidden="1">
       <c r="A249" s="3">
-        <v>43585</v>
-      </c>
-      <c r="B249" s="4"/>
-    </row>
-    <row r="250" spans="1:2" ht="46.8" hidden="1">
+        <v>43587</v>
+      </c>
+      <c r="B249" s="10"/>
+    </row>
+    <row r="250" spans="1:2" hidden="1">
       <c r="A250" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B250" s="9" t="s">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2" hidden="1">
       <c r="A251" s="5"/>
-      <c r="B251" s="9"/>
+      <c r="B251" s="8"/>
     </row>
     <row r="252" spans="1:2" hidden="1">
       <c r="A252" s="7">
-        <v>43585</v>
-      </c>
-      <c r="B252" s="9"/>
-    </row>
-    <row r="253" spans="1:2" ht="15.6">
-      <c r="A253" s="2" t="s">
+        <v>43587</v>
+      </c>
+      <c r="B252" s="8"/>
+    </row>
+    <row r="253" spans="1:2" hidden="1">
+      <c r="A253" s="1"/>
+      <c r="B253" s="10"/>
+    </row>
+    <row r="254" spans="1:2" hidden="1">
+      <c r="A254" s="3">
+        <v>43588</v>
+      </c>
+      <c r="B254" s="10"/>
+    </row>
+    <row r="255" spans="1:2" hidden="1">
+      <c r="A255" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" hidden="1">
+      <c r="A256" s="5"/>
+      <c r="B256" s="8"/>
+    </row>
+    <row r="257" spans="1:2" hidden="1">
+      <c r="A257" s="7">
+        <v>43589</v>
+      </c>
+      <c r="B257" s="8"/>
+    </row>
+    <row r="258" spans="1:2" hidden="1">
+      <c r="A258" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" hidden="1">
+      <c r="A259" s="1"/>
+      <c r="B259" s="4"/>
+    </row>
+    <row r="260" spans="1:2" hidden="1">
+      <c r="A260" s="3">
+        <v>43592</v>
+      </c>
+      <c r="B260" s="4"/>
+    </row>
+    <row r="261" spans="1:2" ht="41.4" hidden="1">
+      <c r="A261" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" hidden="1">
+      <c r="A262" s="5"/>
+      <c r="B262" s="9"/>
+    </row>
+    <row r="263" spans="1:2" hidden="1">
+      <c r="A263" s="7">
+        <v>43592</v>
+      </c>
+      <c r="B263" s="9"/>
+    </row>
+    <row r="264" spans="1:2" ht="55.2" hidden="1">
+      <c r="A264" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" hidden="1">
+      <c r="A265" s="1"/>
+      <c r="B265" s="10"/>
+    </row>
+    <row r="266" spans="1:2" hidden="1">
+      <c r="A266" s="3">
+        <v>43593</v>
+      </c>
+      <c r="B266" s="10"/>
+    </row>
+    <row r="267" spans="1:2" hidden="1">
+      <c r="A267" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" hidden="1">
+      <c r="A268" s="5"/>
+      <c r="B268" s="8"/>
+    </row>
+    <row r="269" spans="1:2" hidden="1">
+      <c r="A269" s="7">
+        <v>43594</v>
+      </c>
+      <c r="B269" s="8"/>
+    </row>
+    <row r="270" spans="1:2" hidden="1">
+      <c r="A270" s="1"/>
+      <c r="B270" s="10"/>
+    </row>
+    <row r="271" spans="1:2" hidden="1">
+      <c r="A271" s="3">
+        <v>43594</v>
+      </c>
+      <c r="B271" s="10"/>
+    </row>
+    <row r="272" spans="1:2" hidden="1">
+      <c r="A272" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B253" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" hidden="1">
-      <c r="A254" s="1"/>
-      <c r="B254" s="10"/>
-    </row>
-    <row r="255" spans="1:2" hidden="1">
-      <c r="A255" s="3">
-        <v>43587</v>
-      </c>
-      <c r="B255" s="10"/>
-    </row>
-    <row r="256" spans="1:2" ht="15.6" hidden="1">
-      <c r="A256" s="6" t="s">
+      <c r="B272" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B256" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" hidden="1">
-      <c r="A257" s="5"/>
-      <c r="B257" s="8"/>
-    </row>
-    <row r="258" spans="1:2" hidden="1">
-      <c r="A258" s="7">
-        <v>43587</v>
-      </c>
-      <c r="B258" s="8"/>
-    </row>
-    <row r="259" spans="1:2" ht="31.2">
-      <c r="A259" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B259" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" hidden="1">
-      <c r="A260" s="1"/>
-      <c r="B260" s="10"/>
-    </row>
-    <row r="261" spans="1:2" hidden="1">
-      <c r="A261" s="3">
-        <v>43588</v>
-      </c>
-      <c r="B261" s="10"/>
-    </row>
-    <row r="262" spans="1:2" ht="15.6" hidden="1">
-      <c r="A262" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B262" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" hidden="1">
-      <c r="A263" s="5"/>
-      <c r="B263" s="8"/>
-    </row>
-    <row r="264" spans="1:2" hidden="1">
-      <c r="A264" s="7">
-        <v>43589</v>
-      </c>
-      <c r="B264" s="8"/>
-    </row>
-    <row r="265" spans="1:2" ht="15.6" hidden="1">
-      <c r="A265" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" hidden="1">
-      <c r="A266" s="1"/>
-      <c r="B266" s="4"/>
-    </row>
-    <row r="267" spans="1:2" hidden="1">
-      <c r="A267" s="3">
-        <v>43592</v>
-      </c>
-      <c r="B267" s="4"/>
-    </row>
-    <row r="268" spans="1:2" ht="62.4" hidden="1">
-      <c r="A268" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B268" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" hidden="1">
-      <c r="A269" s="5"/>
-      <c r="B269" s="9"/>
-    </row>
-    <row r="270" spans="1:2" hidden="1">
-      <c r="A270" s="7">
-        <v>43592</v>
-      </c>
-      <c r="B270" s="9"/>
-    </row>
-    <row r="271" spans="1:2" ht="62.4" hidden="1">
-      <c r="A271" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B271" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" hidden="1">
-      <c r="A272" s="1"/>
-      <c r="B272" s="10"/>
-    </row>
-    <row r="273" spans="1:2" hidden="1">
-      <c r="A273" s="3">
-        <v>43593</v>
-      </c>
-      <c r="B273" s="10"/>
-    </row>
-    <row r="274" spans="1:2" ht="15.6" hidden="1">
-      <c r="A274" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" hidden="1">
-      <c r="A275" s="5"/>
-      <c r="B275" s="8"/>
-    </row>
-    <row r="276" spans="1:2" hidden="1">
-      <c r="A276" s="7">
-        <v>43594</v>
-      </c>
-      <c r="B276" s="8"/>
-    </row>
-    <row r="277" spans="1:2" ht="31.2">
-      <c r="A277" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B277" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" hidden="1">
-      <c r="A278" s="1"/>
-      <c r="B278" s="10"/>
-    </row>
-    <row r="279" spans="1:2" hidden="1">
-      <c r="A279" s="3">
-        <v>43594</v>
-      </c>
-      <c r="B279" s="10"/>
-    </row>
-    <row r="280" spans="1:2" ht="15.6" hidden="1">
-      <c r="A280" s="6" t="s">
+    </row>
+    <row r="273" spans="1:3" hidden="1">
+      <c r="A273" s="5"/>
+      <c r="B273" s="13"/>
+    </row>
+    <row r="274" spans="1:3" hidden="1">
+      <c r="A274" s="7">
+        <v>43596</v>
+      </c>
+      <c r="B274" s="13"/>
+    </row>
+    <row r="275" spans="1:3" ht="28.8">
+      <c r="B275" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B280" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" hidden="1">
-      <c r="A281" s="5"/>
-      <c r="B281" s="13"/>
-    </row>
-    <row r="282" spans="1:2" hidden="1">
-      <c r="A282" s="7">
+      <c r="C275" s="14">
         <v>43596</v>
       </c>
-      <c r="B282" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B280" r:id="rId1" display="https://bootcampspot.com/attendance/remote-attendance-request/549230" xr:uid="{F922E454-1424-492E-9D47-F818C66708F1}"/>
+    <hyperlink ref="B272" r:id="rId1" display="https://bootcampspot.com/attendance/remote-attendance-request/549230" xr:uid="{F922E454-1424-492E-9D47-F818C66708F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
